--- a/output/Table 5.xlsx
+++ b/output/Table 5.xlsx
@@ -13,21 +13,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Cause</t>
   </si>
   <si>
-    <t>All causes</t>
-  </si>
-  <si>
     <t>CMNN</t>
   </si>
   <si>
+    <t>NCDs</t>
+  </si>
+  <si>
     <t>Injuries</t>
   </si>
   <si>
-    <t>NCDs</t>
+    <t>Maternal &amp; neonatal</t>
+  </si>
+  <si>
+    <t>Respiratory infections</t>
+  </si>
+  <si>
+    <t>Neoplasms</t>
   </si>
   <si>
     <t>Cardiovascular</t>
@@ -36,49 +42,40 @@
     <t>Chronic respiratory</t>
   </si>
   <si>
-    <t>Diabetes and kidney diseases</t>
-  </si>
-  <si>
     <t>Digestive</t>
   </si>
   <si>
-    <t>Maternal &amp; neonatal</t>
+    <t>Neurological</t>
   </si>
   <si>
     <t>Mental</t>
   </si>
   <si>
+    <t>Substance use</t>
+  </si>
+  <si>
+    <t>Diabetes &amp; kidney</t>
+  </si>
+  <si>
+    <t>Skin</t>
+  </si>
+  <si>
+    <t>Sense organ</t>
+  </si>
+  <si>
     <t>Musculoskeletal</t>
   </si>
   <si>
-    <t>Neoplasms</t>
-  </si>
-  <si>
-    <t>Neurological</t>
-  </si>
-  <si>
     <t>Other NCD</t>
   </si>
   <si>
-    <t>Respiratory infections</t>
+    <t>Transport injuries</t>
+  </si>
+  <si>
+    <t>Unintentional injuries</t>
   </si>
   <si>
     <t>Self-harm and violence</t>
-  </si>
-  <si>
-    <t>Sense organ</t>
-  </si>
-  <si>
-    <t>Skin</t>
-  </si>
-  <si>
-    <t>Substance use</t>
-  </si>
-  <si>
-    <t>Transport injuries</t>
-  </si>
-  <si>
-    <t>Unintentional injuries</t>
   </si>
   <si>
     <t>Canada</t>
@@ -143,7 +140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -151,25 +148,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2">
@@ -177,25 +174,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.18999999761581421</v>
+        <v>-22.959999084472656</v>
       </c>
       <c r="C2" s="0">
-        <v>-0.10999999940395355</v>
+        <v>-36.720001220703125</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.25999999046325684</v>
+        <v>-40.830001831054688</v>
       </c>
       <c r="E2" s="0">
-        <v>-0.25</v>
+        <v>-39.590000152587891</v>
       </c>
       <c r="F2" s="0">
-        <v>-0.31000000238418579</v>
+        <v>-51.720001220703125</v>
       </c>
       <c r="G2" s="0">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="H2" s="0">
-        <v>116</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -203,25 +200,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.23000000417232513</v>
+        <v>-16.540000915527344</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.37000000476837158</v>
+        <v>-5.9099998474121094</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.40999999642372131</v>
+        <v>-22.569999694824219</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.40000000596046448</v>
+        <v>-23.709999084472656</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.51999998092651367</v>
+        <v>-27.200000762939453</v>
       </c>
       <c r="G3" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H3" s="0">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -229,25 +226,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.31000000238418579</v>
+        <v>-31.350000381469727</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.27000001072883606</v>
+        <v>-26.790000915527344</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.40000000596046448</v>
+        <v>-40.130001068115234</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.2800000011920929</v>
+        <v>-27.620000839233398</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.37000000476837158</v>
+        <v>-36.520000457763672</v>
       </c>
       <c r="G4" s="0">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H4" s="0">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -255,25 +252,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.17000000178813934</v>
+        <v>-14.539999961853027</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.059999998658895493</v>
+        <v>-28.600000381469727</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.23000000417232513</v>
+        <v>-45.090000152587891</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.23999999463558197</v>
+        <v>-42.540000915527344</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.27000001072883606</v>
+        <v>-52.130001068115234</v>
       </c>
       <c r="G5" s="0">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="H5" s="0">
-        <v>85</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -281,25 +278,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.52999997138977051</v>
+        <v>-36.590000152587891</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.38999998569488525</v>
+        <v>-32.529998779296875</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.56999999284744263</v>
+        <v>-38.970001220703125</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.61000001430511475</v>
+        <v>-34.270000457763672</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.5899999737739563</v>
+        <v>-54.419998168945312</v>
       </c>
       <c r="G6" s="0">
-        <v>515</v>
+        <v>12</v>
       </c>
       <c r="H6" s="0">
-        <v>466</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -307,25 +304,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.14000000059604645</v>
+        <v>-24.100000381469727</v>
       </c>
       <c r="C7" s="0">
-        <v>0.070000000298023224</v>
+        <v>-23.879999160766602</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.25999999046325684</v>
+        <v>-24.170000076293945</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.31000000238418579</v>
+        <v>-26.690000534057617</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.43999999761581421</v>
+        <v>-30.520000457763672</v>
       </c>
       <c r="G7" s="0">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="H7" s="0">
-        <v>260</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -333,25 +330,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>0.15000000596046448</v>
+        <v>-53.290000915527344</v>
       </c>
       <c r="C8" s="0">
-        <v>0.34000000357627869</v>
+        <v>-38.5</v>
       </c>
       <c r="D8" s="0">
-        <v>0.070000000298023224</v>
+        <v>-56.619998931884766</v>
       </c>
       <c r="E8" s="0">
-        <v>0.12999999523162842</v>
+        <v>-61.139999389648438</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.14000000059604645</v>
+        <v>-59.310001373291016</v>
       </c>
       <c r="G8" s="0">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="H8" s="0">
-        <v>238</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -359,25 +356,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.17000000178813934</v>
+        <v>-14.239999771118164</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.10000000149011612</v>
+        <v>6.7199997901916504</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.31000000238418579</v>
+        <v>-25.579999923706055</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.23000000417232513</v>
+        <v>-31.290000915527344</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.46000000834465027</v>
+        <v>-44.080001831054688</v>
       </c>
       <c r="G9" s="0">
-        <v>169</v>
+        <v>9</v>
       </c>
       <c r="H9" s="0">
-        <v>185</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -385,25 +382,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.15000000596046448</v>
+        <v>-17.159999847412109</v>
       </c>
       <c r="C10" s="0">
-        <v>-0.28999999165534973</v>
+        <v>-10.350000381469727</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.44999998807907104</v>
+        <v>-30.909999847412109</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.43000000715255737</v>
+        <v>-22.770000457763672</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.51999998092651367</v>
+        <v>-46.009998321533203</v>
       </c>
       <c r="G10" s="0">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="H10" s="0">
-        <v>200</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -411,25 +408,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>0.0099999997764825821</v>
+        <v>-2.0699999332427979</v>
       </c>
       <c r="C11" s="0">
-        <v>0.10000000149011612</v>
+        <v>-1.059999942779541</v>
       </c>
       <c r="D11" s="0">
-        <v>0</v>
+        <v>1.2400000095367432</v>
       </c>
       <c r="E11" s="0">
-        <v>0.029999999329447746</v>
+        <v>-0.25999999046325684</v>
       </c>
       <c r="F11" s="0">
-        <v>0</v>
+        <v>4.0999999046325684</v>
       </c>
       <c r="G11" s="0">
-        <v>385</v>
+        <v>17</v>
       </c>
       <c r="H11" s="0">
-        <v>420</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -437,25 +434,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>0.070000000298023224</v>
+        <v>0.68000000715255737</v>
       </c>
       <c r="C12" s="0">
-        <v>0.059999998658895493</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.0099999997764825821</v>
+        <v>-0.37000000476837158</v>
       </c>
       <c r="E12" s="0">
-        <v>0.0099999997764825821</v>
+        <v>3.2799999713897705</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.0099999997764825821</v>
+        <v>0.34999999403953552</v>
       </c>
       <c r="G12" s="0">
-        <v>475</v>
+        <v>5</v>
       </c>
       <c r="H12" s="0">
-        <v>512</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -463,25 +460,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.23999999463558197</v>
+        <v>94.629997253417969</v>
       </c>
       <c r="C13" s="0">
-        <v>-0.23999999463558197</v>
+        <v>161.3800048828125</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.23999999463558197</v>
+        <v>14.239999771118164</v>
       </c>
       <c r="E13" s="0">
-        <v>-0.27000001072883606</v>
+        <v>31.920000076293945</v>
       </c>
       <c r="F13" s="0">
-        <v>-0.31000000238418579</v>
+        <v>-2.6800000667572021</v>
       </c>
       <c r="G13" s="0">
-        <v>501</v>
+        <v>24</v>
       </c>
       <c r="H13" s="0">
-        <v>525</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -489,25 +486,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.019999999552965164</v>
+        <v>14.590000152587891</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.0099999997764825821</v>
+        <v>33.5</v>
       </c>
       <c r="D14" s="0">
-        <v>0.0099999997764825821</v>
+        <v>7.2600002288818359</v>
       </c>
       <c r="E14" s="0">
-        <v>0</v>
+        <v>13.329999923706055</v>
       </c>
       <c r="F14" s="0">
-        <v>0.039999999105930328</v>
+        <v>-13.869999885559082</v>
       </c>
       <c r="G14" s="0">
-        <v>343</v>
+        <v>15</v>
       </c>
       <c r="H14" s="0">
-        <v>368</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -515,25 +512,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.23000000417232513</v>
+        <v>0.47999998927116394</v>
       </c>
       <c r="C15" s="0">
-        <v>-0.20999999344348907</v>
+        <v>-4.179999828338623</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.23999999463558197</v>
+        <v>-0.039999999105930328</v>
       </c>
       <c r="E15" s="0">
-        <v>-0.31000000238418579</v>
+        <v>0.079999998211860657</v>
       </c>
       <c r="F15" s="0">
-        <v>-0.28999999165534973</v>
+        <v>2.4500000476837158</v>
       </c>
       <c r="G15" s="0">
-        <v>377</v>
+        <v>4</v>
       </c>
       <c r="H15" s="0">
-        <v>353</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -541,25 +538,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.37000000476837158</v>
+        <v>-4.9699997901916504</v>
       </c>
       <c r="C16" s="0">
-        <v>-0.33000001311302185</v>
+        <v>-1.3899999856948853</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.38999998569488525</v>
+        <v>-5.9899997711181641</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.34000000357627869</v>
+        <v>-5.7300000190734863</v>
       </c>
       <c r="F16" s="0">
-        <v>-0.54000002145767212</v>
+        <v>-5.3000001907348633</v>
       </c>
       <c r="G16" s="0">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="H16" s="0">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -567,25 +564,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.20000000298023224</v>
+        <v>7.3299999237060547</v>
       </c>
       <c r="C17" s="0">
-        <v>-0.2199999988079071</v>
+        <v>6.2699999809265137</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.37000000476837158</v>
+        <v>-0.80000001192092896</v>
       </c>
       <c r="E17" s="0">
-        <v>-0.2199999988079071</v>
+        <v>0.74000000953674316</v>
       </c>
       <c r="F17" s="0">
-        <v>0.019999999552965164</v>
+        <v>-1.1699999570846558</v>
       </c>
       <c r="G17" s="0">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="H17" s="0">
-        <v>228</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -593,25 +590,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.05000000074505806</v>
+        <v>-23.450000762939453</v>
       </c>
       <c r="C18" s="0">
-        <v>-0.0099999997764825821</v>
+        <v>-21.200000762939453</v>
       </c>
       <c r="D18" s="0">
-        <v>-0.059999998658895493</v>
+        <v>-23.920000076293945</v>
       </c>
       <c r="E18" s="0">
-        <v>-0.059999998658895493</v>
+        <v>-31.379999160766602</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.05000000074505806</v>
+        <v>-29.180000305175781</v>
       </c>
       <c r="G18" s="0">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="H18" s="0">
-        <v>125</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -619,25 +616,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="0">
-        <v>0</v>
+        <v>-54.650001525878906</v>
       </c>
       <c r="C19" s="0">
-        <v>-0.039999999105930328</v>
+        <v>-39.680000305175781</v>
       </c>
       <c r="D19" s="0">
-        <v>0</v>
+        <v>-65.230003356933594</v>
       </c>
       <c r="E19" s="0">
-        <v>0</v>
+        <v>-61.990001678466797</v>
       </c>
       <c r="F19" s="0">
-        <v>0.019999999552965164</v>
+        <v>-70.300003051757812</v>
       </c>
       <c r="G19" s="0">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="H19" s="0">
-        <v>205</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
@@ -645,25 +642,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="0">
-        <v>0.94999998807907104</v>
+        <v>-18.290000915527344</v>
       </c>
       <c r="C20" s="0">
-        <v>1.6100000143051147</v>
+        <v>-18.319999694824219</v>
       </c>
       <c r="D20" s="0">
-        <v>0.14000000059604645</v>
+        <v>-22.079999923706055</v>
       </c>
       <c r="E20" s="0">
-        <v>0.31999999284744263</v>
+        <v>-8.1800003051757812</v>
       </c>
       <c r="F20" s="0">
-        <v>-0.029999999329447746</v>
+        <v>-31.530000686645508</v>
       </c>
       <c r="G20" s="0">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="H20" s="0">
-        <v>331</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -671,51 +668,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="0">
-        <v>-0.55000001192092896</v>
+        <v>-20.040000915527344</v>
       </c>
       <c r="C21" s="0">
-        <v>-0.40000000596046448</v>
+        <v>-22.239999771118164</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.64999997615814209</v>
+        <v>-36.930000305175781</v>
       </c>
       <c r="E21" s="0">
-        <v>-0.62000000476837158</v>
+        <v>-21.549999237060547</v>
       </c>
       <c r="F21" s="0">
-        <v>-0.69999998807907104</v>
+        <v>1.6499999761581421</v>
       </c>
       <c r="G21" s="0">
-        <v>274</v>
+        <v>20</v>
       </c>
       <c r="H21" s="0">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="0">
-        <v>-0.18000000715255737</v>
-      </c>
-      <c r="C22" s="0">
-        <v>-0.18000000715255737</v>
-      </c>
-      <c r="D22" s="0">
-        <v>-0.2199999988079071</v>
-      </c>
-      <c r="E22" s="0">
-        <v>-0.079999998211860657</v>
-      </c>
-      <c r="F22" s="0">
-        <v>-0.31999999284744263</v>
-      </c>
-      <c r="G22" s="0">
-        <v>288</v>
-      </c>
-      <c r="H22" s="0">
-        <v>308</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
